--- a/fias_loader/TESTS/Y_BUILD/05/_TEST_xxx_adr_area_type.xlsx
+++ b/fias_loader/TESTS/Y_BUILD/05/_TEST_xxx_adr_area_type.xlsx
@@ -1764,7 +1764,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1781,6 +1781,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBEE3D3"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -1824,7 +1830,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1838,6 +1844,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1858,7 +1868,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFF200"/>
@@ -1924,8 +1934,8 @@
   </sheetPr>
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A135" activeCellId="0" sqref="A135"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3159,32 +3169,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G43" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="G43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3971,32 +3981,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="0" t="s">
+      <c r="G71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="I71" s="0" t="s">
+      <c r="I71" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4406,32 +4416,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3" t="s">
+      <c r="G86" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4464,90 +4474,90 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" s="3" t="s">
+      <c r="G88" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I88" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
+      <c r="G89" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I89" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" s="3" t="s">
+      <c r="G90" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I90" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4580,61 +4590,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>91</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G92" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" s="3" t="s">
+      <c r="G92" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I92" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G93" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3" t="s">
+      <c r="G93" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="I93" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4725,61 +4735,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="G97" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" s="3" t="s">
+      <c r="G97" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="I97" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I97" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" s="3" t="s">
+      <c r="G98" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="I98" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4957,32 +4967,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G105" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" s="3" t="s">
+      <c r="G105" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="I105" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5073,148 +5083,148 @@
         <v>92</v>
       </c>
     </row>
-    <row r="109" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="G109" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" s="3" t="s">
+      <c r="G109" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="I109" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I109" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G110" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" s="3" t="s">
+      <c r="G110" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="I110" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I110" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="G111" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" s="3" t="s">
+      <c r="G111" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="I111" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="s">
+      <c r="I111" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="G112" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" s="4" t="s">
+      <c r="G112" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="I112" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I112" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>112</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F113" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="G113" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" s="3" t="s">
+      <c r="G113" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="I113" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5247,61 +5257,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>114</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G115" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" s="3" t="s">
+      <c r="G115" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="I115" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I115" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B116" s="3" t="n">
         <v>115</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="G116" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" s="3" t="s">
+      <c r="G116" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="I116" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5711,61 +5721,61 @@
         <v>92</v>
       </c>
     </row>
-    <row r="131" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="G131" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H131" s="3" t="s">
+      <c r="G131" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I131" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>131</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="G132" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3" t="s">
+      <c r="G132" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="I132" s="3" t="s">
+      <c r="I132" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5827,32 +5837,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>134</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="F135" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="G135" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" s="3" t="s">
+      <c r="G135" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="I135" s="3" t="s">
+      <c r="I135" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/fias_loader/TESTS/Y_BUILD/05/_TEST_xxx_adr_area_type.xlsx
+++ b/fias_loader/TESTS/Y_BUILD/05/_TEST_xxx_adr_area_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="571">
   <si>
     <t xml:space="preserve">fias_ids</t>
   </si>
@@ -1764,7 +1764,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1793,6 +1793,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066B3"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00AAAD"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1830,7 +1842,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1843,11 +1855,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1879,7 +1899,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF00AAAD"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -1888,7 +1908,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0066B3"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1934,8 +1954,8 @@
   </sheetPr>
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C138" activeCellId="0" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3173,8 +3193,8 @@
       <c r="A43" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="3" t="n">
-        <v>42</v>
+      <c r="B43" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>178</v>
@@ -4478,7 +4498,7 @@
       <c r="A88" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="5" t="n">
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -4594,7 +4614,7 @@
       <c r="A92" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="6" t="n">
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -5170,32 +5190,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5" t="s">
+    <row r="112" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B112" s="5" t="n">
+      <c r="B112" s="7" t="n">
         <v>111</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="G112" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" s="5" t="s">
+      <c r="G112" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="I112" s="5" t="s">
+      <c r="I112" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5290,7 +5310,7 @@
       <c r="A116" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="5" t="n">
         <v>115</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -5841,7 +5861,7 @@
       <c r="A135" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>134</v>
       </c>
       <c r="C135" s="4" t="s">

--- a/fias_loader/TESTS/Y_BUILD/05/_TEST_xxx_adr_area_type.xlsx
+++ b/fias_loader/TESTS/Y_BUILD/05/_TEST_xxx_adr_area_type.xlsx
@@ -13,7 +13,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1742,7 +1742,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1763,62 +1763,8 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1827,62 +1773,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFFCD4D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFED1C24"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFBEE3D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCD4D1"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBEE3D3"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED1C24"/>
-        <bgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -1904,7 +1808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1912,23 +1816,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1952,50 +1841,33 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2004,30 +1876,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2035,26 +1890,26 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF00AAAD"/>
-      <rgbColor rgb="FFFCD4D1"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFBEE3D3"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066B3"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2065,12 +1920,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFBEE3D3"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFCD4D1"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -2099,8 +1954,8 @@
   </sheetPr>
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C138" activeCellId="0" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4846,25 +4701,25 @@
       <c r="A95" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G95" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" s="4" t="s">
+      <c r="G95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>384</v>
       </c>
       <c r="I95" s="2" t="s">
@@ -6265,11 +6120,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>